--- a/liste.xlsx
+++ b/liste.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zlobin, Julia</t>
+          <t>Wolf Jannis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -461,142 +461,142 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nell Louis</t>
+          <t xml:space="preserve">Hüsch Paula </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Seibel Devin</t>
+          <t xml:space="preserve">Michalska Lena </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>24. Polizist</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lindner Ben </t>
+          <t xml:space="preserve">Trampenau Nele </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alisha Fuhr</t>
+          <t xml:space="preserve">Dehne Abygale </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joshua Sommer </t>
+          <t xml:space="preserve">Alfaid Odai </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,95 +606,95 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Elias korkmaz</t>
+          <t>Trambo,Vincent</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mies Samira </t>
+          <t>Abdullah Alshabib</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dick Simon</t>
+          <t>Tim Schumacher</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12. Betonbauer (Fritz Meyer)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Takacs Markus</t>
+          <t>Zlobin, Julia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -704,137 +704,137 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15. Fliesenleger (Gottfried Hof)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12. Betonbauer (Fritz Meyer)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mustafa Yildiz</t>
+          <t xml:space="preserve">Rama Leotrim </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Althof Julius</t>
+          <t>Hajra Loris</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zdzislaw szydelko </t>
+          <t>Leipelt Tim</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schäfer Lukas </t>
+          <t>Maria Mazurenko</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jan Reinschmidt</t>
+          <t>Petry Julius</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -844,213 +844,213 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jakob Laura</t>
+          <t xml:space="preserve">Hasenkampf Viktoria </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>error2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neda Cantürk </t>
+          <t xml:space="preserve">Seibert Elias </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tom Luis neibert</t>
+          <t xml:space="preserve">Gardis Alexandra </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hasenkampf Viktoria </t>
+          <t>Winter Gabriel</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fritzler Maxim </t>
+          <t xml:space="preserve">Becher Emilia </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rama Leotrim </t>
+          <t>Mulaki Anwar</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>Betzdorf</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15. Fliesenleger (Gottfried Hof)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Alisha Fuhr</t>
+          <t>Krieger Matthias</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jaber Joshua</t>
+          <t>Sommer Joshua</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1060,186 +1060,186 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ali Cakir</t>
+          <t>Lena krassmann</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fiete Sobbeck</t>
+          <t>Pfeiffer Finn</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kämmerer Lara</t>
+          <t>Bastian Horneck</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mazunin, Velina</t>
+          <t>Hilger Levi</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>28. Fachinformatiker (SSI Schäfer)</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ben hüsch</t>
+          <t>Kurt Halit</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marlon Gielen </t>
+          <t>Becher Rosa</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Seibert Leon</t>
+          <t>Knobe Charlotte</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>10c</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1249,46 +1249,46 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Farnschläder Lara</t>
+          <t>Jakob Laura</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schäfer Luisa </t>
+          <t>Hasenkampf Kirill</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1298,51 +1298,51 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aldin Muratovic</t>
+          <t>Althof Julius</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>28. Fachinformatiker (SSI Schäfer)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Rotha, Annalena</t>
+          <t xml:space="preserve">Schröder, Lina </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1362,41 +1362,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Davis stangier</t>
+          <t>Meisner Fabio</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>23. Koch (Parkhotel Hbg.)</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emily bleeser </t>
+          <t>Abo Ahmad</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1406,348 +1406,348 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Niklas Weber</t>
+          <t>Neibert Tom Luis</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13. Medizinische Fachangstellte</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>11. Forstwirt</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>34. Tischler (Wünsche)</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Omar, Alaa</t>
+          <t>Reifenröther Mia</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niepenberg Soley </t>
+          <t>Hubert Ron</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fehling Josephine</t>
+          <t>Nell Louis</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dikow Julia</t>
+          <t>Capa, Kübra</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Hebel,Neele</t>
+          <t>Neicovcen Alexandr</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schröder, Lina </t>
+          <t xml:space="preserve">Lindner Ben </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Schneider Tom</t>
+          <t>Reinschmidt Jan</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Neuser </t>
+          <t>Semjank Julian</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Neuser </t>
+          <t>Hess joelina</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elisa Keune </t>
+          <t>Duchow Daimon</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Wolf Jannis</t>
+          <t>Idt,Lukas</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stir Giulia </t>
+          <t>Klein Emil</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Köhler David </t>
+          <t>Otremba Jonah</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>12. Betonbauer (Fritz Meyer)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schlosser linus </t>
+          <t xml:space="preserve">Weber Ben </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1811,88 +1811,88 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>11. Forstwirt</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>15. Fliesenleger (Gottfried Hof)</t>
-        </is>
-      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kohlhaas Janis</t>
+          <t>Johanna Jacob</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Farbod Zolfaghari </t>
+          <t xml:space="preserve">Kerkenberg Malte </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weber Ben </t>
+          <t>Kempf Nils</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1902,203 +1902,203 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Weber Lasse</t>
+          <t>Moftakhar, Ilya</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linke, Moritz </t>
+          <t>Sidibe Moussai</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>Betzdorf</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boshnakova iva </t>
+          <t>Mies Johanna</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Malte </t>
+          <t>Becker Conner</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>12. Betonbauer (Fritz Meyer)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hüsch Paula </t>
+          <t>Schneider Laura</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>10a</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lennartz Paula </t>
+          <t>Eberlein Lucy</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Maximilian Stockschläder</t>
+          <t>Vierbuchen Alysha</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>7. Anlagenmechaniker SHK</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
-        </is>
-      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Odai Alfaid </t>
+          <t>Hebel,Neele</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2108,39 +2108,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Abdullah Alshabib</t>
+          <t>Schäfers,Lennox</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2152,22 +2152,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Icyüz Aaliyah </t>
+          <t xml:space="preserve">Löwen Marleen </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2179,7 +2179,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Batuhan Tunc </t>
+          <t>Mazunin, Velina</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2189,834 +2189,834 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>15. Fliesenleger (Gottfried Hof)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Mia Isabella krah</t>
+          <t>Wierscheim Maximilian</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>10a</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Avrami </t>
+          <t>Korkmaz Aliya</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>10b</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lika Gottstein </t>
+          <t xml:space="preserve">Linke, Moritz </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Niepenberg Lilja</t>
+          <t xml:space="preserve">Schütz , Mika </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Semjank Julian</t>
+          <t>Abbate Aurora</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Pfeiffer Finn</t>
+          <t>Gottstein Lika</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Maus Jamie</t>
+          <t xml:space="preserve">Blickhäuser Alina </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rente Lisa </t>
+          <t>Niepenberg Lilja</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schütz , Mika </t>
+          <t xml:space="preserve">Lennartz Paula </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Schermoly Tamilo</t>
+          <t>Mailinger Til</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bogdan Panfil </t>
+          <t>Albero Lukas</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Liam Hanser</t>
+          <t>Groß Linda</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kanbur, Sara Minel </t>
+          <t>Maus Jamie</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Otremba Jonah</t>
+          <t xml:space="preserve">Fritzler Maxim </t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>24. Polizist</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Louis brucherseifer </t>
+          <t>Korkmaz Elias</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>34. Tischler (Wünsche)</t>
-        </is>
-      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Acar Sinem</t>
+          <t>Härter Linda</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Alex Farkas</t>
+          <t>Schermoly Tamilo</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Hiller Florens</t>
+          <t>Sivis, Furkan</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Giulietta Brancato</t>
+          <t>Renz Larissa</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Renz Larissa</t>
+          <t xml:space="preserve">Niepenberg Soley </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Joshua mijota</t>
+          <t>Sönmez Naomi</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Samuel Korf</t>
+          <t xml:space="preserve">Lotz Stella </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trampenau Nele </t>
+          <t>Neuser Elias</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Heckel Maxime</t>
+          <t>Bleeser Emily</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lotz Stella </t>
+          <t xml:space="preserve">Meier Sophia </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kappes Fiona </t>
+          <t>Panfil Bogdan</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Bischel debora</t>
+          <t>Acar Arda</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Symalla Carlotta</t>
+          <t>Muratovic Aldin</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">BelauLea </t>
+          <t>Henseler Ben</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kramer Bjarne </t>
+          <t xml:space="preserve">Schäfer Luisa </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mousavi, ilya</t>
+          <t>Krah Mia Isabelle</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3026,186 +3026,186 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Selina Schneeweiß</t>
+          <t>Brunnet Tobias</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Theodor </t>
+          <t xml:space="preserve">Boshnakova Iva </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dehne abygale </t>
+          <t>Mohammadi Wahidullah</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
-        </is>
-      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Schäfers,Lennox</t>
+          <t xml:space="preserve">Kotaidis Theodor </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Böhmer Mara</t>
+          <t>Mijota Joshua</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Alik Broev</t>
+          <t>Mikayil Sol</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mia Legner </t>
+          <t>Farkas Alex</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3215,174 +3215,174 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Becher Rosa</t>
+          <t>Legner Mia</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Schnabel Mateo</t>
+          <t>Fehling Josephine</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>28. Fachinformatiker (SSI Schäfer)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alina Broev </t>
+          <t>Gina Strauch</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Loris hajra</t>
+          <t>Seibel Devin</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>15. Fliesenleger (Gottfried Hof)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Daimon</t>
+          <t>Cantürk Neda</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>15. Fliesenleger (Gottfried Hof)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Weitershagen Mia</t>
+          <t xml:space="preserve">Keune Elisa </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3394,93 +3394,93 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Schütz Fabienne</t>
+          <t>Hüsch Ben</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joel uebach </t>
+          <t>Yildiz Mustafa</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linda Härter </t>
+          <t>Holzschuh Luiz</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Mockenhaupt Miles</t>
+          <t>Diallo Souleymane</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>Betzdorf</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3490,235 +3490,235 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Krienke, Lukas</t>
+          <t>Bischel Debora</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>28. Fachinformatiker (SSI Schäfer)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ahmad abo</t>
+          <t>Schneeweiß Selina</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
           <t>23. Koch (Parkhotel Hbg.)</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>21. Mechatroniker (Kyocera)</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>14. Straßenbauer (Gebr. Schmidt)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Reifenrath Tom</t>
+          <t>Acar Sinem</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gardis Alexandra </t>
+          <t>Daoad Muhammad</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>Betzdorf</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Krombach Béla </t>
+          <t>Hassan Yara</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alina Blickhäuser </t>
+          <t>Karabulut Beyza</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Tobias Brunnet</t>
+          <t>Altahan Omar</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Charlott</t>
+          <t>Medine Tekel</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Vincent Sterle</t>
+          <t xml:space="preserve">Köhler David </t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3738,127 +3738,127 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Andreas weber</t>
+          <t>Graf, Justus</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Mies Johanna</t>
+          <t>Shirzad Hazratwali</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>Betzdorf</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michalska Lena </t>
+          <t>Ata, Aleyna</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
-        </is>
-      </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vinzenz Lück </t>
+          <t>Penner Josias</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Schmidt Mira</t>
+          <t>Heer Mia</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3868,100 +3868,100 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Matthias Krieger </t>
+          <t xml:space="preserve">Kramer Bjarne </t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>13. Medizinische Fachangstellte</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
           <t>32. Physiotherapeut (Wohlgetan)</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mika würden </t>
+          <t>Reifenrath Tom</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
-        </is>
-      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Stangier Louis</t>
+          <t>Sterle Vincent</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
-        </is>
-      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Eberlein Lucy</t>
+          <t>Korf Samuel</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3971,56 +3971,56 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Seibert </t>
+          <t>Hiller Florens</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Mia Heer</t>
+          <t>Schmidt Mira</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4030,667 +4030,667 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Louis Groß </t>
+          <t>Jaber Joshua</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Lars aßenmacher</t>
+          <t>Zeycan, Kerim</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>12. Betonbauer (Fritz Meyer)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>12. Betonbauer (Fritz Meyer)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Becker Isabella </t>
+          <t xml:space="preserve">Zolfaghari Farbod </t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aleandr Neicovcen </t>
+          <t>Reese Julia</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Levi hilger </t>
+          <t>Stangier Davis</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Til mailinger</t>
+          <t>Cakir Ali</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ben Henseler </t>
+          <t>Lück Vinzenz</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>12. Betonbauer (Fritz Meyer)</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Reifenrath Sara</t>
+          <t>Amini Masiullah</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>Betzdorf</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Löwen Marleen </t>
+          <t>Aßenmacher Lars</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>12. Betonbauer (Fritz Meyer)</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
           <t>24. Polizist</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Wisser, Ricarda-Louisa</t>
+          <t>Korf Jonas</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Penner Josias</t>
+          <t>Brucherseifer Louis</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Vierbuchen Alysha</t>
+          <t>Groß Valentin</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zick Louisa </t>
+          <t>Fuhr Alisha</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>24. Polizist</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Idt,Lukas</t>
+          <t>Broev Alik</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Mia legner</t>
+          <t xml:space="preserve">Stir Giulia </t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Becher Emilia </t>
+          <t xml:space="preserve">Rente Lisa </t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Becker conner</t>
+          <t xml:space="preserve">Würden Mika </t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Hensel Hanna</t>
+          <t>Fischer Sam</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>33. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Arda Acar</t>
+          <t xml:space="preserve">Kappes Fiona </t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmann, Jule </t>
+          <t>Kunitschenko Lionel</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Klinge Noah</t>
+          <t>Krienke, Lukas</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ilaria Scharrenbach </t>
+          <t>Weber Lasse</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Justin Hennig</t>
+          <t xml:space="preserve">Belau Lea </t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>15. Fliesenleger (Gottfried Hof)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Gabriel Winter</t>
+          <t>Böhmer Mara</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Valentin Groß</t>
+          <t>Böhmer Phil</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4710,95 +4710,95 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meier Sophia </t>
+          <t xml:space="preserve">Mies Samira </t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>24. Polizist</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Geimer Sophia</t>
+          <t>Klein Lea</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Trambo,(Vincent)Ronja</t>
+          <t>Tim Philipsohn</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Holzschuh luiz</t>
+          <t>Hensel Hanna</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4808,17 +4808,1718 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schlosser linus </t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>8c</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Wisser, Ricarda-Louisa</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>9b</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>13. Medizinische Fachangstellte</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zick Louisa </t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>9c</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Hanser Liam</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>9b</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>7. Anlagenmechaniker SHK</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Gielen Marlon</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>8b</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>24. Polizist</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Broev Alina </t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>9c</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>24. Polizist</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hoffmann, Jule </t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>8b</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Dick Simon</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>8a</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>12. Betonbauer (Fritz Meyer)</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>7. Anlagenmechaniker SHK</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Schütz Fabienne</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>9b</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Kohlhaas Janis</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>7. Anlagenmechaniker SHK</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>21. Mechatroniker (Kyocera)</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Schneider Tom</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>24. Polizist</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Takacs Markus</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>12. Betonbauer (Fritz Meyer)</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>34. Tischler (Wünsche)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Reifenrath Sara</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>8a</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Stangier Louis</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>7. Anlagenmechaniker SHK</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Wildeis Veronika</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>8c</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Hermann Leon-Joel</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>8e</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>3. Justizfachangestellte</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>3. Justizfachangestellte</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stockschläder Maximilian </t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>8e</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Geimer Sophia</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Becker Isabella </t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>8e</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Hennig Justin</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>8d</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>3. Justizfachangestellte</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>24. Polizist</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Kielmann Lena</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>10a</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>13. Medizinische Fachangstellte</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Sandy Selishta</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>3. Justizfachangestellte</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Mohammed Hasan Alhaj</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Betzdorf</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
         <is>
           <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Symalla Carlotta</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>8c</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>13. Medizinische Fachangstellte</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kanbur, Sara Minel </t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Wolf Jayden</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>9b</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>21. Mechatroniker (Kyocera)</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Dikow Julia</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>9c</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Szydelko Zdzislaw</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>8c</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>24. Polizist</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Weber Andreas</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>8d</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
         <is>
           <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>7. Anlagenmechaniker SHK</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Splitstößer Elli</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>8d</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uebach Louis </t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>8e</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>24. Polizist</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>21. Mechatroniker (Kyocera)</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Abdullrahman Alohtman</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Betzdorf</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schäfer Lukas </t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Specht, Daniel</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>3. Justizfachangestellte</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Saltan Emircan</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Seibert Leon</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>8c</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>13. Medizinische Fachangstellte</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>3. Justizfachangestellte</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Weitershagen Mia</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>9c</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Krombach Béla </t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>9c</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Scharrenbach Ilaria</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>8d</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>13. Medizinische Fachangstellte</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Shikou Hesham</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Betzdorf</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>34. Tischler (Wünsche)</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Weronika Deisner</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Balla Kantè</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Betzdorf</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>12. Betonbauer (Fritz Meyer)</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Rotha, Annalena</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>9b</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>24. Polizist</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Klinge Noah</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>9b</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tunc Batuhan </t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>7. Anlagenmechaniker SHK</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Mockenhaupt Miles</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>7. Anlagenmechaniker SHK</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>21. Mechatroniker (Kyocera)</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Omar, Alaa</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>9b</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>34. Tischler (Wünsche)</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Sobbeck Fiete</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>8b</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Avrami Elias</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>9b</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>24. Polizist</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Brancato Guiletta</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>9c</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Schumacher Charlott</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>8c</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Pagel Johann</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>10c</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Weber Niklas</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>8a</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Schnabel Mateo</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>8b</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Farnschläder Lara</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Reinscheid Nahla</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>9c</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Pala Eylem</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>9b</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Heckel Maxime</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>8c</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Linus Rödder</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>3. Justizfachangestellte</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Kämmerer Lara</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>9c</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>13. Medizinische Fachangstellte</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Peter Jule</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>8d</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>3. Justizfachangestellte</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Avdija Leon</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>8e</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>24. Polizist</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Icyüz Aaliyah </t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>9b</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>34. Tischler (Wünsche)</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>error</t>
         </is>
       </c>
     </row>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,39 +451,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zlobin, Julia</t>
+          <t>Hanser Liam</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nell Louis</t>
+          <t>Specht, Daniel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -493,105 +493,105 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Seibel Devin</t>
+          <t>Seibert Leon</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lindner Ben </t>
+          <t>Schmidt Mira</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+          <t>error2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alisha Fuhr</t>
+          <t>Stangier Louis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joshua Sommer </t>
+          <t>Moftakhar, Ilya</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -601,73 +601,73 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Elias korkmaz</t>
+          <t>Otremba Jonah</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mies Samira </t>
+          <t>Meisner Fabio</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dick Simon</t>
+          <t xml:space="preserve">Kappes Fiona </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -677,61 +677,61 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12. Betonbauer (Fritz Meyer)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Takacs Markus</t>
+          <t>Jakob Laura</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15. Fliesenleger (Gottfried Hof)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12. Betonbauer (Fritz Meyer)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mustafa Yildiz</t>
+          <t>Neibert Tom Luis</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -741,14 +741,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Althof Julius</t>
+          <t>Böhmer Phil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -758,51 +758,51 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zdzislaw szydelko </t>
+          <t>Broev Alik</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schäfer Lukas </t>
+          <t>Kohlhaas Janis</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -812,147 +812,147 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jan Reinschmidt</t>
+          <t>Renz Larissa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jakob Laura</t>
+          <t xml:space="preserve">Schäfer Lukas </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neda Cantürk </t>
+          <t>Sterle Vincent</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tom Luis neibert</t>
+          <t>Althof Julius</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hasenkampf Viktoria </t>
+          <t xml:space="preserve">Icyüz Aaliyah </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -964,49 +964,49 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fritzler Maxim </t>
+          <t>Brucherseifer Louis</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rama Leotrim </t>
+          <t>Schäfers,Lennox</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15. Fliesenleger (Gottfried Hof)</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1018,71 +1018,71 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Alisha Fuhr</t>
+          <t>Reifenrath Sara</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jaber Joshua</t>
+          <t>Brunnet Tobias</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ali Cakir</t>
+          <t>Pagel Johann</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>10c</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1099,223 +1099,223 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fiete Sobbeck</t>
+          <t>Cantürk Neda</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kämmerer Lara</t>
+          <t>Fehling Josephine</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>error2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mazunin, Velina</t>
+          <t xml:space="preserve">Zick Louisa </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>28. Fachinformatiker (SSI Schäfer)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ben hüsch</t>
+          <t>Balla Kantè</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>Betzdorf</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marlon Gielen </t>
+          <t>Pfeiffer Finn</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Seibert Leon</t>
+          <t xml:space="preserve">Michalska Lena </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Farnschläder Lara</t>
+          <t>Schumacher Charlott</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schäfer Luisa </t>
+          <t>Panfil Bogdan</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aldin Muratovic</t>
+          <t>Mazunin, Velina</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1325,132 +1325,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>24. Polizist</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>28. Fachinformatiker (SSI Schäfer)</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Rotha, Annalena</t>
+          <t>Mikayil Sol</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Davis stangier</t>
+          <t>Zeycan, Kerim</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emily bleeser </t>
+          <t>Abdullrahman Alohtman</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>Betzdorf</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Niklas Weber</t>
+          <t xml:space="preserve">Keune Elisa </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Omar, Alaa</t>
+          <t>Wolf Jayden</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1460,39 +1460,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niepenberg Soley </t>
+          <t xml:space="preserve">Blickhäuser Alina </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>5. Kosmetiker</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fehling Josephine</t>
+          <t xml:space="preserve">Rente Lisa </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1514,66 +1514,66 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dikow Julia</t>
+          <t>Lena krassmann</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Hebel,Neele</t>
+          <t>Johanna Jacob</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1585,147 +1585,147 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schröder, Lina </t>
+          <t xml:space="preserve">Hasenkampf Viktoria </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Schneider Tom</t>
+          <t>Korkmaz Elias</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Neuser </t>
+          <t xml:space="preserve">Würden Mika </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Neuser </t>
+          <t>Takacs Markus</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elisa Keune </t>
+          <t>Hess joelina</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Wolf Jannis</t>
+          <t xml:space="preserve">Boshnakova Iva </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1735,46 +1735,46 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stir Giulia </t>
+          <t>Sandy Selishta</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Köhler David </t>
+          <t>Krieger Matthias</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1784,255 +1784,255 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>12. Betonbauer (Fritz Meyer)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schlosser linus </t>
+          <t xml:space="preserve">Lennartz Paula </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>15. Fliesenleger (Gottfried Hof)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kohlhaas Janis</t>
+          <t>Kunitschenko Lionel</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Farbod Zolfaghari </t>
+          <t>Reifenrath Tom</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weber Ben </t>
+          <t>Gina Strauch</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Weber Lasse</t>
+          <t xml:space="preserve">Lotz Stella </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linke, Moritz </t>
+          <t>Duchow Daimon</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boshnakova iva </t>
+          <t>Sommer Joshua</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Malte </t>
+          <t xml:space="preserve">Krombach Béla </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>12. Betonbauer (Fritz Meyer)</t>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hüsch Paula </t>
+          <t>Legner Mia</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>13. Medizinische Fachangstellte</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2044,169 +2044,169 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lennartz Paula </t>
+          <t>Sobbeck Fiete</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Maximilian Stockschläder</t>
+          <t>Dikow Julia</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Odai Alfaid </t>
+          <t>Graf, Justus</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Abdullah Alshabib</t>
+          <t>Abo Ahmad</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>21. Mechatroniker (Kyocera)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>14. Straßenbauer (Gebr. Schmidt)</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Icyüz Aaliyah </t>
+          <t>Zlobin, Julia</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Batuhan Tunc </t>
+          <t>Böhmer Mara</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>15. Fliesenleger (Gottfried Hof)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>error2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Mia Isabella krah</t>
+          <t>Hensel Hanna</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2216,358 +2216,358 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>error2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Avrami </t>
+          <t xml:space="preserve">Tunc Batuhan </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lika Gottstein </t>
+          <t xml:space="preserve">Becker Isabella </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Niepenberg Lilja</t>
+          <t>Hubert Ron</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Semjank Julian</t>
+          <t xml:space="preserve">Kotaidis Theodor </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Pfeiffer Finn</t>
+          <t>Groß Valentin</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>11. Forstwirt</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>34. Tischler (Wünsche)</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Maus Jamie</t>
+          <t>Gottstein Lika</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rente Lisa </t>
+          <t>Eberlein Lucy</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schütz , Mika </t>
+          <t>Avrami Elias</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Schermoly Tamilo</t>
+          <t xml:space="preserve">Kramer Bjarne </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bogdan Panfil </t>
+          <t xml:space="preserve">Stir Giulia </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Liam Hanser</t>
+          <t>Saltan Emircan</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kanbur, Sara Minel </t>
+          <t>Henseler Ben</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Otremba Jonah</t>
+          <t>Petry Julius</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2577,41 +2577,41 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Louis brucherseifer </t>
+          <t xml:space="preserve">Hoffmann, Jule </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Acar Sinem</t>
+          <t>Pala Eylem</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2621,12 +2621,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2638,61 +2638,61 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Alex Farkas</t>
+          <t>Vierbuchen Alysha</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Hiller Florens</t>
+          <t xml:space="preserve">Schlosser linus </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Giulietta Brancato</t>
+          <t>Kurt Halit</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2702,29 +2702,29 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Renz Larissa</t>
+          <t xml:space="preserve">Trampenau Nele </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2734,385 +2734,385 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Joshua mijota</t>
+          <t>Weber Andreas</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Samuel Korf</t>
+          <t xml:space="preserve">Mies Samira </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trampenau Nele </t>
+          <t>Korf Samuel</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Heckel Maxime</t>
+          <t>Fischer Sam</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>33. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lotz Stella </t>
+          <t>Tim Schumacher</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kappes Fiona </t>
+          <t>Scharrenbach Ilaria</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Bischel debora</t>
+          <t xml:space="preserve">Seibert Elias </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Symalla Carlotta</t>
+          <t>Trambo,Vincent</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">BelauLea </t>
+          <t xml:space="preserve">Schütz , Mika </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kramer Bjarne </t>
+          <t>Krienke, Lukas</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mousavi, ilya</t>
+          <t>Fuhr Alisha</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Selina Schneeweiß</t>
+          <t>Neicovcen Alexandr</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Theodor </t>
+          <t>Sivis, Furkan</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dehne abygale </t>
+          <t>Klein Lea</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3124,120 +3124,120 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Schäfers,Lennox</t>
+          <t>Weber Lasse</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Böhmer Mara</t>
+          <t>Shikou Hesham</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>Betzdorf</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Alik Broev</t>
+          <t>Medine Tekel</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mia Legner </t>
+          <t>Szydelko Zdzislaw</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Becher Rosa</t>
+          <t>Neuser Elias</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3247,29 +3247,29 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Schnabel Mateo</t>
+          <t xml:space="preserve">Gardis Alexandra </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3279,122 +3279,122 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>28. Fachinformatiker (SSI Schäfer)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alina Broev </t>
+          <t>Splitstößer Elli</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>error2</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Loris hajra</t>
+          <t>Niepenberg Lilja</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t>15. Fliesenleger (Gottfried Hof)</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Daimon</t>
+          <t>Jaber Joshua</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
           <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>7. Anlagenmechaniker SHK</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Weitershagen Mia</t>
+          <t>Leipelt Tim</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Schütz Fabienne</t>
+          <t>Acar Sinem</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3404,137 +3404,137 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joel uebach </t>
+          <t>Becher Rosa</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linda Härter </t>
+          <t>Mohammed Hasan Alhaj</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>Betzdorf</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Mockenhaupt Miles</t>
+          <t>Sönmez Naomi</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>21. Mechatroniker (Kyocera)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Krienke, Lukas</t>
+          <t>Hermann Leon-Joel</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>28. Fachinformatiker (SSI Schäfer)</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ahmad abo</t>
+          <t>Farkas Alex</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3544,61 +3544,61 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
+          <t>7. Anlagenmechaniker SHK</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
           <t>21. Mechatroniker (Kyocera)</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>14. Straßenbauer (Gebr. Schmidt)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Reifenrath Tom</t>
+          <t>Hebel,Neele</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gardis Alexandra </t>
+          <t xml:space="preserve">Hüsch Paula </t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3610,115 +3610,115 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Krombach Béla </t>
+          <t>Stangier Davis</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alina Blickhäuser </t>
+          <t>Diallo Souleymane</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>Betzdorf</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Tobias Brunnet</t>
+          <t>Schütz Fabienne</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Charlott</t>
+          <t xml:space="preserve">Dehne Abygale </t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Vincent Sterle</t>
+          <t xml:space="preserve">Meier Sophia </t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3728,456 +3728,456 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Andreas weber</t>
+          <t>Penner Josias</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Mies Johanna</t>
+          <t>Groß Linda</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michalska Lena </t>
+          <t>Hiller Florens</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vinzenz Lück </t>
+          <t>Bischel Debora</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Schmidt Mira</t>
+          <t>Mohammadi Wahidullah</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Matthias Krieger </t>
+          <t>Kämmerer Lara</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mika würden </t>
+          <t>Kielmann Lena</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>10a</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Stangier Louis</t>
+          <t>Mies Johanna</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Eberlein Lucy</t>
+          <t>Muratovic Aldin</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9a</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Seibert </t>
+          <t>Idt,Lukas</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Mia Heer</t>
+          <t xml:space="preserve">Fritzler Maxim </t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Louis Groß </t>
+          <t>Shirzad Hazratwali</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>Betzdorf</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Lars aßenmacher</t>
+          <t xml:space="preserve">Rama Leotrim </t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>12. Betonbauer (Fritz Meyer)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>12. Betonbauer (Fritz Meyer)</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Becker Isabella </t>
+          <t>Sidibe Moussai</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>Betzdorf</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aleandr Neicovcen </t>
+          <t>Dick Simon</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>23. Koch (Parkhotel Hbg.)</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Levi hilger </t>
+          <t>Amini Masiullah</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>Betzdorf</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Til mailinger</t>
+          <t>Reinscheid Nahla</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4197,41 +4197,41 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ben Henseler </t>
+          <t>Hilger Levi</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>12. Betonbauer (Fritz Meyer)</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Reifenrath Sara</t>
+          <t>Kempf Nils</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4241,78 +4241,78 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Löwen Marleen </t>
+          <t xml:space="preserve">Uebach Louis </t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Wisser, Ricarda-Louisa</t>
+          <t>Winter Gabriel</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8a</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Penner Josias</t>
+          <t xml:space="preserve">Löwen Marleen </t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4322,56 +4322,56 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Vierbuchen Alysha</t>
+          <t>Reifenröther Mia</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>7. Anlagenmechaniker SHK</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zick Louisa </t>
+          <t>Omar, Alaa</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4393,120 +4393,120 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Idt,Lukas</t>
+          <t>Mailinger Til</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
-        </is>
-      </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>20. Werkzeugmechaniker (Kyocera)</t>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Mia legner</t>
+          <t xml:space="preserve">Belau Lea </t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Becher Emilia </t>
+          <t>Hennig Justin</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>9c</t>
+          <t>8d</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Becker conner</t>
+          <t>Karabulut Beyza</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>BBS Wissen</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>24. Polizist</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Hensel Hanna</t>
+          <t>Altahan Omar</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4516,262 +4516,262 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>error2</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Arda Acar</t>
+          <t>Nell Louis</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>8e</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmann, Jule </t>
+          <t xml:space="preserve">Stockschläder Maximilian </t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>8b</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>5. Kosmetiker</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Klinge Noah</t>
+          <t>Reinschmidt Jan</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>9b</t>
+          <t>8c</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ilaria Scharrenbach </t>
+          <t>Yildiz Mustafa</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>9b</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>13. Medizinische Fachangstellte</t>
+          <t>error2</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Justin Hennig</t>
+          <t>Acar Arda</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>8d</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>15. Fliesenleger (Gottfried Hof)</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Gabriel Winter</t>
+          <t>Lück Vinzenz</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>9c</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>32. Physiotherapeut (Wohlgetan)</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Valentin Groß</t>
+          <t>Avdija Leon</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>8c</t>
+          <t>8e</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>11. Forstwirt</t>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meier Sophia </t>
+          <t>Abbate Aurora</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>8a</t>
+          <t>8b</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>26. Mediengestalter (SSI Schäfer)</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Geimer Sophia</t>
+          <t>Wierscheim Maximilian</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>9a</t>
+          <t>10a</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>3. Justizfachangestellte</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Trambo,(Vincent)Ronja</t>
+          <t xml:space="preserve">Alfaid Odai </t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4781,44 +4781,1745 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>34. Tischler (Wünsche)</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>19. Technischer Produktdesigner (Kyocera)</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Holzschuh luiz</t>
+          <t>Abdullah Alshabib</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
+          <t>8a</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kanbur, Sara Minel </t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Bastian Horneck</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Krah Mia Isabelle</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
           <t>8e</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Heckel Maxime</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>8c</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Tim Philipsohn</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>3. Justizfachangestellte</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Hajra Loris</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>8d</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>3. Justizfachangestellte</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Wildeis Veronika</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>8c</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Mijota Joshua</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Peter Jule</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>8d</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Knobe Charlotte</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>10c</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>13. Medizinische Fachangstellte</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Seibel Devin</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>8a</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Maria Mazurenko</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Hasenkampf Kirill</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>21. Mechatroniker (Kyocera)</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Korkmaz Aliya</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>10b</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>13. Medizinische Fachangstellte</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Capa, Kübra</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Becker Conner</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>8e</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>24. Polizist</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>3. Justizfachangestellte</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Heer Mia</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>8b</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schäfer Luisa </t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>3. Justizfachangestellte</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Rotha, Annalena</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>9b</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Hassan Yara</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>13. Medizinische Fachangstellte</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>21. Mechatroniker (Kyocera)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Schneider Tom</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Mulaki Anwar</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Betzdorf</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>12. Betonbauer (Fritz Meyer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerkenberg Malte </t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
         <is>
           <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>12. Betonbauer (Fritz Meyer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Cakir Ali</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>8d</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>21. Mechatroniker (Kyocera)</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Korf Jonas</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>9c</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Broev Alina </t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>9c</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Härter Linda</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>8b</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Weber Niklas</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>8a</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>34. Tischler (Wünsche)</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Linus Rödder</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Reese Julia</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Bleeser Emily</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>8e</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Geimer Sophia</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>3. Justizfachangestellte</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Aßenmacher Lars</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>8b</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>12. Betonbauer (Fritz Meyer)</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>12. Betonbauer (Fritz Meyer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Schneeweiß Selina</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>8b</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Schneider Laura</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>10a</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>12. Betonbauer (Fritz Meyer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Becher Emilia </t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>9c</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Maus Jamie</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>8a</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lindner Ben </t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>8a</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Hüsch Ben</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>8c</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>21. Mechatroniker (Kyocera)</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>7. Anlagenmechaniker SHK</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Schermoly Tamilo</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>8e</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Mockenhaupt Miles</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>7. Anlagenmechaniker SHK</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>21. Mechatroniker (Kyocera)</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>21. Mechatroniker (Kyocera)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Farnschläder Lara</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>34. Tischler (Wünsche)</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Schnabel Mateo</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>8b</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>24. Polizist</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>13. Medizinische Fachangstellte</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Ata, Aleyna</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Weber Ben </t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>8c</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Gielen Marlon</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>8b</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Brancato Guiletta</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>9c</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>3. Justizfachangestellte</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Weitershagen Mia</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>9c</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>13. Medizinische Fachangstellte</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Klinge Noah</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>9b</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Holzschuh Luiz</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>8e</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>34. Tischler (Wünsche)</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
         <is>
           <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Semjank Julian</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>8a</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zolfaghari Farbod </t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>8b</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>34. Tischler (Wünsche)</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>21. Mechatroniker (Kyocera)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Niepenberg Soley </t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>8c</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>5. Kosmetiker</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Daoad Muhammad</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Betzdorf</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Symalla Carlotta</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>8c</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Albero Lukas</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>21. Mechatroniker (Kyocera)</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schröder, Lina </t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>9b</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Klein Emil</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>9c</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>24. Polizist</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Linke, Moritz </t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>11. Forstwirt</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Wisser, Ricarda-Louisa</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>9b</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>error2</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Wolf Jannis</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>9a</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>23. Koch (Parkhotel Hbg.)</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Köhler David </t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>8a</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>7. Anlagenmechaniker SHK</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>12. Betonbauer (Fritz Meyer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Weronika Deisner</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>BBS Wissen</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
     </row>
